--- a/main/ValueSet-bc-expertise-value-set.xlsx
+++ b/main/ValueSet-bc-expertise-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-expertise-value-set.xlsx
+++ b/main/ValueSet-bc-expertise-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-expertise-value-set.xlsx
+++ b/main/ValueSet-bc-expertise-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ValueSet-bc-expertise-value-set.xlsx
+++ b/main/ValueSet-bc-expertise-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
